--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\Spicy nvaders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\Spicy nvaders\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2089B596-704B-4E83-99B5-A1B4B2865AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8FBE9-9635-45D9-BF92-203D0CFAEF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>titre</t>
   </si>
@@ -42,13 +42,59 @@
   </si>
   <si>
     <t>test(s)</t>
+  </si>
+  <si>
+    <t>Lancement du jeu</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux que le jeux se lance sur la page du menu
+Pour pouvoir choisir ce que je veux faire</t>
+  </si>
+  <si>
+    <t>Menu principale</t>
+  </si>
+  <si>
+    <t>En tant que joueur,
+Je veux utiliser les flèches haut/bas
+Pour sélectionner une entrée dans un menu</t>
+  </si>
+  <si>
+    <t>Quand je suis sur le menu principale
+A la pression des flêches haut et bas
+Le curseur de séléction change d'entrée d'une ligne dans la direction choisie</t>
+  </si>
+  <si>
+    <t>Quand le curseur sélectionne l'entrée de tout en haut
+A la pression de la flèche haut
+Il ne se passe rien</t>
+  </si>
+  <si>
+    <t>Quand le curseur sélectionne l'entrée de tout en bas
+A la pression de la flèche bas
+Il ne se passe rien</t>
+  </si>
+  <si>
+    <t>Quand le curseur pointe sur une entrée
+A la pression de la touche entrée
+L'entrée sélectionnée s'affiche</t>
+  </si>
+  <si>
+    <t>Quand le jeu n'est pas lancé sur mon pc
+Au lancement de l'éxecutable
+Le jeu se lance sur le menu principale</t>
+  </si>
+  <si>
+    <t>Quand le jeu n'est pas lancé sur mon pc
+Au lancement de l'éxecutable
+Le curseur se trouve sur l'entrée de tout en haut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +104,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,13 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +494,11 @@
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="5" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,156 +508,269 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,6 +779,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4B9E7C5D694AD43BF578BC0F90B54B2" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0984db86dc07217f5a46f514afe4bde0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14" xmlns:ns4="46b00e57-26a5-4c78-86b9-22a327b96dfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460f8b61d47669917f380c5230989cdf" ns3:_="" ns4:_="">
     <xsd:import namespace="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14"/>
@@ -818,15 +998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -834,6 +1005,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590D46E6-F198-420C-846C-2B80001D3859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -848,14 +1027,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\Spicy nvaders\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8FBE9-9635-45D9-BF92-203D0CFAEF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DAF041-C53C-402D-84F3-467D44C3F3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>titre</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Quand le jeu n'est pas lancé sur mon pc
 Au lancement de l'éxecutable
 Le curseur se trouve sur l'entrée de tout en haut</t>
+  </si>
+  <si>
+    <t>Maquette</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -154,11 +157,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,6 +234,27 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +270,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72483CFC-4F07-42D8-AC6C-0BB60D95C607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26946225" y="504825"/>
+          <a:ext cx="6410325" cy="3625251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,10 +636,13 @@
     <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="6" width="58.7109375" customWidth="1"/>
+    <col min="5" max="7" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="12" customWidth="1"/>
+    <col min="9" max="13" width="11.42578125" style="10"/>
+    <col min="14" max="14" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +655,18 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5"/>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,8 +681,10 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -547,234 +703,271 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\Spicy nvaders\Spicy-Nvader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theorlando\Documents\GitHub\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DAF041-C53C-402D-84F3-467D44C3F3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADD5E-F04A-4F78-9334-79CEB87FBFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>titre</t>
   </si>
@@ -60,11 +60,6 @@
 Pour sélectionner une entrée dans un menu</t>
   </si>
   <si>
-    <t>Quand je suis sur le menu principale
-A la pression des flêches haut et bas
-Le curseur de séléction change d'entrée d'une ligne dans la direction choisie</t>
-  </si>
-  <si>
     <t>Quand le curseur sélectionne l'entrée de tout en haut
 A la pression de la flèche haut
 Il ne se passe rien</t>
@@ -82,15 +77,121 @@
   <si>
     <t>Quand le jeu n'est pas lancé sur mon pc
 Au lancement de l'éxecutable
-Le jeu se lance sur le menu principale</t>
-  </si>
-  <si>
-    <t>Quand le jeu n'est pas lancé sur mon pc
+Le curseur se trouve sur l'entrée de tout en haut</t>
+  </si>
+  <si>
+    <t>Menu option</t>
+  </si>
+  <si>
+    <t>En tant que joueur,
+Je veux accéder au menu option
+afin de pouvoir modifier la difficulté et le son du jeu</t>
+  </si>
+  <si>
+    <t>Quand je suis sur le menu principale
+A la pression des flèches haut et bas
+Le curseur de séléction change d'entrée d'une ligne dans la direction choisie</t>
+  </si>
+  <si>
+    <t>En tant que joueur,
+Je veux utiliser les flèches haut/bas
+Pour sélectionner une entrée dans le menu option</t>
+  </si>
+  <si>
+    <t>Quand je suis sur le menu option
+A la pression des flèches haut et bas
+Le curseur de séléction change d'entrée d'une ligne dans la direction choisie</t>
+  </si>
+  <si>
+    <t>Pseudo avant de jouer</t>
+  </si>
+  <si>
+    <t>En tant que joueur,
+Je veux rentrer mon pseudo avant de jouer
+Afin que mon highscore s'affiche dans le menu "HIGHSCORES"</t>
+  </si>
+  <si>
+    <t>En tant que joueur sur la page d'entrée de pseudo
+En pressant entrée le pseudo s'enregistre
+Pour savoir qui vas jouer</t>
+  </si>
+  <si>
+    <t>Lancement de la partie</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+Je veux que tout les éléments du jeu s'affiche correctement
+Pour pouvoir jouer dans de bonnes condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que joueur après avoir choisi l'entrée "PLAY" sur le menu principale
+une page d'entrée de pseudo s'affichage
+Pour pouvoir rentrer mon pseudo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que joueur au lancement de la partie
+le compteur de vie s'affiche avec toute les vies
+Pour savoir combien de vie il me reste
+</t>
+  </si>
+  <si>
+    <t>En tant que joueur au lancement de la partie
+Les murs s'affichent entierement construit
+Pour pouvoir me protéger des aliens</t>
+  </si>
+  <si>
+    <t>En tant que joueur au lancement de la partie
+Le vaisseau du joueur s'affiche 
+Pour pouvoir tirer sur les aliens</t>
+  </si>
+  <si>
+    <t>En tant que joueur au lancement de la partie
+Le compteur de score s'affiche
+pour savoir mon score en temps réel</t>
+  </si>
+  <si>
+    <t>En tant que joueur au lancement de la partie
+les aliens s'affichent
+Pour pouvoir tirer sur les aliens et qu'ils nous tirent dessus</t>
+  </si>
+  <si>
+    <t>Tir des aliens</t>
+  </si>
+  <si>
+    <t>En tant que joueur quand la partie est lancée
+Les aliens tirent vers le bas à interval irrégulier
+Pour que les aliens me tirent dessus</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+Je veux que les aliens me tirent dessus
+Pour avoir un adversaire digne de ce nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand le jeu n'est pas lancé sur mon pc
 Au lancement de l'éxecutable
-Le curseur se trouve sur l'entrée de tout en haut</t>
-  </si>
-  <si>
-    <t>Maquette</t>
+Le jeu se lance sur le menu principale </t>
+  </si>
+  <si>
+    <t>dans le menu option avec le curseur sur l'option de difficulté sélectionnée,
+a la pression de la flèche droite
+la difficulté change (facile -&gt; moyen -&gt; difficile -&gt; godmod -&gt; facile)</t>
+  </si>
+  <si>
+    <t>dans le menu option avec le curseur sur l'option de difficulté sélectionnée,
+a la pression de la flèche gauche
+la difficulté change (facile -&gt;  godmod -&gt; difficile -&gt; moyen -&gt; facile)</t>
+  </si>
+  <si>
+    <t>En tant que joueur avec le curseur sur l'option de son sélectionnée,
+a la pression de la flèche de droite
+le son change (activé -&gt; désactivé -&gt; activé)</t>
+  </si>
+  <si>
+    <t>En tant que joueur avec le curseur sur l'option de son sélectionnée,
+a la pression de la flèche de gauche
+le son change (activé -&gt; désactivé -&gt; activé)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -155,15 +262,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -223,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,14 +332,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,12 +349,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,16 +373,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>129576</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -314,7 +411,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26946225" y="504825"/>
+          <a:off x="39309675" y="3114675"/>
           <a:ext cx="6410325" cy="3625251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -624,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +733,9 @@
     <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="7" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="12" customWidth="1"/>
-    <col min="9" max="13" width="11.42578125" style="10"/>
-    <col min="14" max="14" width="11.42578125" style="11"/>
+    <col min="5" max="9" width="58.7109375" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="6"/>
+    <col min="14" max="14" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,34 +751,33 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -692,75 +787,123 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -769,7 +912,9 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -778,7 +923,9 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -787,7 +934,9 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -796,7 +945,9 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -805,7 +956,9 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -814,7 +967,9 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -823,146 +978,188 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="1">
     <mergeCell ref="H1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theorlando\Documents\GitHub\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADD5E-F04A-4F78-9334-79CEB87FBFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1EFFA-2D06-43A3-9E65-DF4F544E5D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
+    <workbookView xWindow="-10785" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>titre</t>
   </si>
@@ -122,12 +122,6 @@
     <t>En tant que joueur
 Je veux que tout les éléments du jeu s'affiche correctement
 Pour pouvoir jouer dans de bonnes condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant que joueur après avoir choisi l'entrée "PLAY" sur le menu principale
-une page d'entrée de pseudo s'affichage
-Pour pouvoir rentrer mon pseudo
-</t>
   </si>
   <si>
     <t xml:space="preserve">En tant que joueur au lancement de la partie
@@ -184,14 +178,223 @@
 la difficulté change (facile -&gt;  godmod -&gt; difficile -&gt; moyen -&gt; facile)</t>
   </si>
   <si>
-    <t>En tant que joueur avec le curseur sur l'option de son sélectionnée,
+    <t xml:space="preserve">quand l'entrée "PLAY" sur le menu principale est choisi
+une page d'entrée de pseudo s'affichage
+Pour pouvoir rentrer mon pseudo
+</t>
+  </si>
+  <si>
+    <t>dans le menu option avec le curseur sur l'option de son sélectionnée,
 a la pression de la flèche de droite
 le son change (activé -&gt; désactivé -&gt; activé)</t>
   </si>
   <si>
-    <t>En tant que joueur avec le curseur sur l'option de son sélectionnée,
+    <t>dans le menu option avec le curseur sur l'option de son sélectionnée,
 a la pression de la flèche de gauche
 le son change (activé -&gt; désactivé -&gt; activé)</t>
+  </si>
+  <si>
+    <t>Déplacement des aliens</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux que les aliens se déplacent latéralement et verticalement
+Pour ajouter un atout a mon adversaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand la partie est en cours
+Les aliens se déplacent vers la droite a un rythme régulier
+Pour faires bouger les aliens
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand la partie est en cours
+Les aliens se déplacent vers la gauche a un rythme régulier
+Pour faires bouger les aliens
+</t>
+  </si>
+  <si>
+    <t>Quand les aliens arrivent au bord de l'écran
+Les aliens descende d'une ligne et reparte dans l'autre sens
+Pour que les aliens se rapproche petit à petit du joueur</t>
+  </si>
+  <si>
+    <t>Compteur de vie</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+je veux avoir un compteur de vie ( 3 vie )
+pour savoir combien de fois j'ai encore droit a l'erreur</t>
+  </si>
+  <si>
+    <t>Quand un tir alien touche le vaisseau du joueur
+le compteur fait disparaitre une vie
+Pour que le joueur perde une vie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game over </t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux savoir quand j'ai perdu la partie</t>
+  </si>
+  <si>
+    <t>Quand le compteur de vie atteint zero
+Le jeu s'arrète et un écran de Game Over s'affiche
+Pour savoir quand j'ai perdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand les aliens atteinent la ligne où commence les murs de protection
+Le jeu s'arrète et un écran de Game Over s'affiche
+Pour savoir quand j'ai perdu
+</t>
+  </si>
+  <si>
+    <t>vaisseau du joueur touché</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+Je veux savoir quand un tir ennemi me touche
+Pour savoir quand je pert une vie</t>
+  </si>
+  <si>
+    <t>Quand le vaisseau du joueur est touché
+il s'immobilise 2s et devient intouchable
+Pour pénalisé le joueur sans lui faire perdre d'autre vie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand le vaisseau du joueur est touché
+Le vaisseau change de forme durant 2s
+Pour donner un signal visuel au joueur
+</t>
+  </si>
+  <si>
+    <t>Scores en temps réel</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+je veux que chaque alien détruit me rapporte des points
+Afin de battre mon highscore</t>
+  </si>
+  <si>
+    <t>Quand un alien est détruit 
+il rapporte des points
+pour pouvoir augmenté mon score</t>
+  </si>
+  <si>
+    <t>Aliens détruit</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+Je veux pouvoir détruire les aliens
+Pour pouvoir gagner des points</t>
+  </si>
+  <si>
+    <t>Quand un alien est touché par un tir du vaisseau du joueur
+l'alien disparait dans un petite explosion ( animation )
+Pour donner un signal visuel au joueur</t>
+  </si>
+  <si>
+    <t>Tout les aliens détruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand le vaisseau du joueur est touché
+Le joueur pert des points
+Pour pénalisé les joueur qui se font beaucoup touché
+</t>
+  </si>
+  <si>
+    <t>En tant que joueur
+Je veux que le jeu réagisse a la mort d'une vague entière d'aliens
+Pour pouvoir continuer à jouer et être récompensé</t>
+  </si>
+  <si>
+    <t>Quand tout les aliens sont détruit
+le joueur a 3s de répit avant qu'une nouvelle vague d'aliens apparaisse
+Pour que la partie se continue</t>
+  </si>
+  <si>
+    <t>Quand tout les aliens sont détuit
+Le joueur recois une vie supplémentaire ( dans la limite maximal du compteur de vie, 3 vie )
+Pour récompensé le joueur d'avoir éliminé un vague entière d'énnemis</t>
+  </si>
+  <si>
+    <t>Quand les aliens se déplacent horizontalement 
+A chaque case parcourue le model visuel de l'alien change
+Afin de créer une petite animation de déplacement</t>
+  </si>
+  <si>
+    <t>Déplacement du vaisseau du joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand la flèche de droite est préssée en jeu
+Le vaisseau se déplace sur la droite
+Pour pouvoir me déplacer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand la flèche de gauche est préssée en jeu
+Le vaisseau se déplace sur la gauche
+Pour pouvoir me déplacer
+</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux pouvoir déplacer mon vaisseau de manière horizontal
+Pour pouvoir esquiver les tirs ennemis et me positionné pour tirer  sur les ennemis</t>
+  </si>
+  <si>
+    <t>Quand une flèche directionel est appuyée longuement
+Le vaisseau se déplace de manière continue dans la direction séléctionée
+Pour facilité les déplacement de joueur</t>
+  </si>
+  <si>
+    <t>Tir du vaisseau du joueur</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux pouvoir tirer vers le haut avec mon vaisseau
+Pour pouvoir détruire les aliens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand la flèche haut est préssée en jeu
+Le vaisseau tir un laser vers le haut
+Pour pouvoir tirer sur les aliens
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand un laser est tirer par le vaisseau du joueur
+Le vaisseau ne peut pas tirer d'autre laser pendant 1s
+Pour limiter le nombre de tir du joueur
+</t>
+  </si>
+  <si>
+    <t>Tir sur les murs</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux que les murs soit déstruictible
+Pour offrir plus de possibilité de gameplay</t>
+  </si>
+  <si>
+    <t>Quand un tir touche un mur
+la partie du mur change de couleur ( blanc -&gt; rouge )
+Pour indiquer au joueur que le mur vas bientôt casser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand un tir touche un mur endommagé
+La partie du mur disparait
+Afin de laisser passer les tirs
+</t>
+  </si>
+  <si>
+    <t>Quand le vaisseau arrive au bord de l'écran
+Le vaisseau ne peut plus se déplacer vers le côté ou il est déjà collé au bord
+Afin que le vaisseau ne disparaisse pas de l'écran</t>
   </si>
 </sst>
 </file>
@@ -382,7 +585,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>43851</xdr:rowOff>
+      <xdr:rowOff>243876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -723,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -810,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
@@ -833,7 +1036,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
@@ -844,7 +1047,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -852,7 +1055,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -871,32 +1074,32 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -905,65 +1108,115 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -971,44 +1224,80 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+    <row r="17" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theorlando\Documents\GitHub\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1EFFA-2D06-43A3-9E65-DF4F544E5D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED486E6-8575-4298-B12D-1889A3DA8901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -543,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,9 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,16 +955,16 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -983,7 +983,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1006,7 +1006,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1458,15 +1458,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4B9E7C5D694AD43BF578BC0F90B54B2" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0984db86dc07217f5a46f514afe4bde0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14" xmlns:ns4="46b00e57-26a5-4c78-86b9-22a327b96dfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460f8b61d47669917f380c5230989cdf" ns3:_="" ns4:_="">
     <xsd:import namespace="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14"/>
@@ -1677,6 +1668,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1684,14 +1684,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590D46E6-F198-420C-846C-2B80001D3859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1706,6 +1698,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theorlando\Documents\GitHub\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED486E6-8575-4298-B12D-1889A3DA8901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F10E53-1FCA-4D91-B180-000149A8A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>titre</t>
   </si>
@@ -395,6 +395,24 @@
     <t>Quand le vaisseau arrive au bord de l'écran
 Le vaisseau ne peut plus se déplacer vers le côté ou il est déjà collé au bord
 Afin que le vaisseau ne disparaisse pas de l'écran</t>
+  </si>
+  <si>
+    <t>Menu About</t>
+  </si>
+  <si>
+    <t>En tant que joueur 
+Je veux avoir des infos sur la création du jeu
+Pour comprendre les motivations du dévelopeur</t>
+  </si>
+  <si>
+    <t>Dans le menu about
+Quand je presse escape
+Le menu principale s'affiche</t>
+  </si>
+  <si>
+    <t>Dans le menu principale
+Quand je choisi le menu about
+Le menu about s'affiche</t>
   </si>
 </sst>
 </file>
@@ -927,7 +945,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,11 +1322,19 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
@@ -1458,6 +1484,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4B9E7C5D694AD43BF578BC0F90B54B2" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0984db86dc07217f5a46f514afe4bde0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14" xmlns:ns4="46b00e57-26a5-4c78-86b9-22a327b96dfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460f8b61d47669917f380c5230989cdf" ns3:_="" ns4:_="">
     <xsd:import namespace="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14"/>
@@ -1668,15 +1703,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1684,6 +1710,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590D46E6-F198-420C-846C-2B80001D3859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1698,14 +1732,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Stories-SpicyNvaders-theorlando.xlsx
+++ b/Stories-SpicyNvaders-theorlando.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theorlando\Documents\GitHub\Spicy-Nvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F10E53-1FCA-4D91-B180-000149A8A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9634BC-847E-4307-B59F-71B11082E5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
+    <workbookView xWindow="330" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FC1220D0-F500-4509-AEBD-73DE32FF46A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F9A3D-880B-4EDA-9E11-7E060A805D83}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,15 +1484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4B9E7C5D694AD43BF578BC0F90B54B2" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0984db86dc07217f5a46f514afe4bde0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14" xmlns:ns4="46b00e57-26a5-4c78-86b9-22a327b96dfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460f8b61d47669917f380c5230989cdf" ns3:_="" ns4:_="">
     <xsd:import namespace="2355ee30-94b2-4a5a-b7d7-59ce3ea1eb14"/>
@@ -1703,6 +1694,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1710,14 +1710,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590D46E6-F198-420C-846C-2B80001D3859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1732,6 +1724,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0912D6D1-7DC0-4CFF-8ECC-C25F094057A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
